--- a/Pake Dataset/dataset/TetapanWaktu.xlsx
+++ b/Pake Dataset/dataset/TetapanWaktu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\skripsi\Pake Dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB0089F-5782-45C0-8280-F1DC79E7C2FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7118AE5-8897-44A1-B1CB-15C4CAF73A25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E8B9B973-5BFA-4DE0-8E41-9C1BC8EB208A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E8B9B973-5BFA-4DE0-8E41-9C1BC8EB208A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="10">
   <si>
     <t>Hari</t>
   </si>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02048460-DA54-41B9-B89C-895A862AD766}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,11 +704,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -764,11 +763,11 @@
         <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -824,11 +823,11 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -884,11 +883,11 @@
         <v>4</v>
       </c>
       <c r="B30" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -926,14 +925,14 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1">
         <f>B33+D33</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -941,14 +940,14 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" ref="C34:C61" si="1">B34+D34</f>
-        <v>10</v>
+        <f>B34+D34</f>
+        <v>18</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -956,17 +955,17 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>B35+D35</f>
+        <v>18</v>
       </c>
       <c r="D35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,11 +976,11 @@
         <v>8</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>B36+D36</f>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,14 +988,14 @@
         <v>5</v>
       </c>
       <c r="B37" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C37:C51" si="1">B37+D37</f>
         <v>10</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,14 +1003,14 @@
         <v>5</v>
       </c>
       <c r="B38" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,14 +1018,14 @@
         <v>5</v>
       </c>
       <c r="B39" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,10 +1037,10 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,14 +1048,14 @@
         <v>5</v>
       </c>
       <c r="B41" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,14 +1063,14 @@
         <v>5</v>
       </c>
       <c r="B42" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1079,14 +1078,14 @@
         <v>5</v>
       </c>
       <c r="B43" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1098,10 +1097,10 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,14 +1108,14 @@
         <v>5</v>
       </c>
       <c r="B45" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,14 +1123,14 @@
         <v>5</v>
       </c>
       <c r="B46" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,14 +1138,14 @@
         <v>5</v>
       </c>
       <c r="B47" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D47" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,10 +1157,10 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,10 +1172,10 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,14 +1183,14 @@
         <v>5</v>
       </c>
       <c r="B50" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,14 +1198,14 @@
         <v>5</v>
       </c>
       <c r="B51" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D51" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,11 +1216,10 @@
         <v>12</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D52" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,11 +1230,11 @@
         <v>12</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" ref="C53:C69" si="2">B53+D53</f>
+        <v>14</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,14 +1242,14 @@
         <v>5</v>
       </c>
       <c r="B54" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,14 +1257,14 @@
         <v>5</v>
       </c>
       <c r="B55" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D55" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1277,11 +1275,11 @@
         <v>13</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="D56" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,11 +1290,11 @@
         <v>13</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1304,14 +1302,14 @@
         <v>5</v>
       </c>
       <c r="B58" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,14 +1317,14 @@
         <v>5</v>
       </c>
       <c r="B59" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D59" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1337,11 +1335,11 @@
         <v>14</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="D60" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1352,11 +1350,11 @@
         <v>14</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,14 +1362,14 @@
         <v>5</v>
       </c>
       <c r="B62" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="1">
-        <f>B62+D62</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1379,26 +1377,26 @@
         <v>5</v>
       </c>
       <c r="B63" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="1">
-        <f>B63+D63</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D63" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1">
-        <f>B64+D64</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -1406,14 +1404,14 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65:C92" si="2">B65+D65</f>
-        <v>10</v>
+        <f>B65+D65</f>
+        <v>17</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
@@ -1421,14 +1419,14 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>B66+D66</f>
+        <v>18</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -1436,47 +1434,47 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>B67+D67</f>
+        <v>17</v>
       </c>
       <c r="D67" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>B68+D68</f>
+        <v>18</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>B69+D69</f>
+        <v>18</v>
       </c>
       <c r="D69" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1484,14 +1482,14 @@
         <v>6</v>
       </c>
       <c r="B70" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>B70+D70</f>
+        <v>9</v>
       </c>
       <c r="D70" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,14 +1497,14 @@
         <v>6</v>
       </c>
       <c r="B71" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" ref="C71:C85" si="3">B71+D71</f>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,14 +1512,14 @@
         <v>6</v>
       </c>
       <c r="B72" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="D72" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,14 +1527,14 @@
         <v>6</v>
       </c>
       <c r="B73" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D73" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,14 +1542,14 @@
         <v>6</v>
       </c>
       <c r="B74" s="1">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C74" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
       <c r="D74" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,14 +1557,14 @@
         <v>6</v>
       </c>
       <c r="B75" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="D75" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,14 +1572,14 @@
         <v>6</v>
       </c>
       <c r="B76" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D76" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,14 +1587,14 @@
         <v>6</v>
       </c>
       <c r="B77" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="D77" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,14 +1602,14 @@
         <v>6</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="D78" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,14 +1617,14 @@
         <v>6</v>
       </c>
       <c r="B79" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="D79" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,14 +1632,14 @@
         <v>6</v>
       </c>
       <c r="B80" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="D80" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,14 +1647,14 @@
         <v>6</v>
       </c>
       <c r="B81" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D81" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,14 +1662,14 @@
         <v>6</v>
       </c>
       <c r="B82" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="D82" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,14 +1677,14 @@
         <v>6</v>
       </c>
       <c r="B83" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
       <c r="D83" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,14 +1692,14 @@
         <v>6</v>
       </c>
       <c r="B84" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,14 +1707,14 @@
         <v>6</v>
       </c>
       <c r="B85" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D85" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,14 +1722,13 @@
         <v>6</v>
       </c>
       <c r="B86" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D86" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,14 +1736,14 @@
         <v>6</v>
       </c>
       <c r="B87" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" ref="C87:C103" si="4">B87+D87</f>
+        <v>14</v>
       </c>
       <c r="D87" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,14 +1751,14 @@
         <v>6</v>
       </c>
       <c r="B88" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="D88" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1769,14 +1766,14 @@
         <v>6</v>
       </c>
       <c r="B89" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,14 +1781,14 @@
         <v>6</v>
       </c>
       <c r="B90" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="D90" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,14 +1796,14 @@
         <v>6</v>
       </c>
       <c r="B91" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="D91" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,14 +1811,14 @@
         <v>6</v>
       </c>
       <c r="B92" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="D92" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,14 +1826,14 @@
         <v>6</v>
       </c>
       <c r="B93" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C93" s="1">
-        <f>B93+D93</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="D93" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1844,146 +1841,146 @@
         <v>6</v>
       </c>
       <c r="B94" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="1">
-        <f>B94+D94</f>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="D94" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C95" s="1">
-        <f>B95+D95</f>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="D95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" ref="C96:C123" si="3">B96+D96</f>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="D96" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="D97" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B98" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="D98" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B99" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>B99+D99</f>
+        <v>17</v>
       </c>
       <c r="D99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B100" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f>B100+D100</f>
+        <v>18</v>
       </c>
       <c r="D100" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B101" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f>B101+D101</f>
+        <v>17</v>
       </c>
       <c r="D101" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f>B102+D102</f>
+        <v>18</v>
       </c>
       <c r="D102" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B103" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f>B103+D103</f>
+        <v>18</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
@@ -1994,14 +1991,14 @@
         <v>7</v>
       </c>
       <c r="B104" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f>B104+D104</f>
+        <v>9</v>
       </c>
       <c r="D104" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,14 +2006,14 @@
         <v>7</v>
       </c>
       <c r="B105" s="1">
+        <v>8</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:C119" si="5">B105+D105</f>
         <v>10</v>
       </c>
-      <c r="C105" s="1">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
       <c r="D105" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2024,14 +2021,14 @@
         <v>7</v>
       </c>
       <c r="B106" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="D106" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2039,14 +2036,14 @@
         <v>7</v>
       </c>
       <c r="B107" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D107" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,14 +2051,14 @@
         <v>7</v>
       </c>
       <c r="B108" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="D108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,14 +2066,14 @@
         <v>7</v>
       </c>
       <c r="B109" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="D109" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2084,14 +2081,14 @@
         <v>7</v>
       </c>
       <c r="B110" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="D110" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2099,14 +2096,14 @@
         <v>7</v>
       </c>
       <c r="B111" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="D111" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,14 +2111,14 @@
         <v>7</v>
       </c>
       <c r="B112" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="D112" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2129,14 +2126,14 @@
         <v>7</v>
       </c>
       <c r="B113" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="D113" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2144,14 +2141,14 @@
         <v>7</v>
       </c>
       <c r="B114" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="D114" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,14 +2156,14 @@
         <v>7</v>
       </c>
       <c r="B115" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="3"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="D115" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,14 +2171,14 @@
         <v>7</v>
       </c>
       <c r="B116" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="D116" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2189,14 +2186,14 @@
         <v>7</v>
       </c>
       <c r="B117" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="D117" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2204,14 +2201,14 @@
         <v>7</v>
       </c>
       <c r="B118" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="D118" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,14 +2216,14 @@
         <v>7</v>
       </c>
       <c r="B119" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="D119" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,14 +2231,13 @@
         <v>7</v>
       </c>
       <c r="B120" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D120" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2249,14 +2245,14 @@
         <v>7</v>
       </c>
       <c r="B121" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" ref="C121:C137" si="6">B121+D121</f>
+        <v>14</v>
       </c>
       <c r="D121" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2264,14 +2260,14 @@
         <v>7</v>
       </c>
       <c r="B122" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="D122" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,14 +2275,14 @@
         <v>7</v>
       </c>
       <c r="B123" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="D123" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,14 +2290,14 @@
         <v>7</v>
       </c>
       <c r="B124" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C124" s="1">
-        <f>B124+D124</f>
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="D124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,194 +2305,194 @@
         <v>7</v>
       </c>
       <c r="B125" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C125" s="1">
-        <f>B125+D125</f>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="D125" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B126" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C126" s="1">
-        <f>B126+D126</f>
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="D126" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" ref="C127:C154" si="4">B127+D127</f>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>17</v>
       </c>
       <c r="D127" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="D128" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B129" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="D129" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>17</v>
       </c>
       <c r="D130" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="D131" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="D132" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>B133+D133</f>
+        <v>17</v>
       </c>
       <c r="D133" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B134" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f>B134+D134</f>
+        <v>18</v>
       </c>
       <c r="D134" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>B135+D135</f>
+        <v>17</v>
       </c>
       <c r="D135" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B136" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>B136+D136</f>
+        <v>18</v>
       </c>
       <c r="D136" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B137" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f>B137+D137</f>
+        <v>18</v>
       </c>
       <c r="D137" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2504,11 +2500,11 @@
         <v>8</v>
       </c>
       <c r="B138" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f>B138+D138</f>
+        <v>9</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
@@ -2519,11 +2515,11 @@
         <v>8</v>
       </c>
       <c r="B139" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" ref="C139:C153" si="7">B139+D139</f>
+        <v>10</v>
       </c>
       <c r="D139" s="1">
         <v>2</v>
@@ -2534,11 +2530,11 @@
         <v>8</v>
       </c>
       <c r="B140" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="D140" s="1">
         <v>3</v>
@@ -2549,11 +2545,11 @@
         <v>8</v>
       </c>
       <c r="B141" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="D141" s="1">
         <v>4</v>
@@ -2564,11 +2560,11 @@
         <v>8</v>
       </c>
       <c r="B142" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -2579,11 +2575,11 @@
         <v>8</v>
       </c>
       <c r="B143" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -2594,11 +2590,11 @@
         <v>8</v>
       </c>
       <c r="B144" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C144" s="1">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="D144" s="1">
         <v>3</v>
@@ -2609,14 +2605,14 @@
         <v>8</v>
       </c>
       <c r="B145" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C145" s="1">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f>B145+D145</f>
+        <v>11</v>
       </c>
       <c r="D145" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2624,14 +2620,14 @@
         <v>8</v>
       </c>
       <c r="B146" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f>B146+D146</f>
+        <v>12</v>
       </c>
       <c r="D146" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,14 +2635,14 @@
         <v>8</v>
       </c>
       <c r="B147" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C147" s="1">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f>B147+D147</f>
+        <v>12</v>
       </c>
       <c r="D147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,11 +2653,11 @@
         <v>13</v>
       </c>
       <c r="C148" s="1">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" ref="C148:C156" si="8">B148+D148</f>
+        <v>14</v>
       </c>
       <c r="D148" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,11 +2668,11 @@
         <v>13</v>
       </c>
       <c r="C149" s="1">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="D149" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,11 +2683,11 @@
         <v>13</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="D150" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2699,14 +2695,14 @@
         <v>8</v>
       </c>
       <c r="B151" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C151" s="1">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
       <c r="D151" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -2717,11 +2713,11 @@
         <v>14</v>
       </c>
       <c r="C152" s="1">
-        <f t="shared" si="4"/>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="D152" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2732,11 +2728,11 @@
         <v>14</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="D153" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,11 +2743,11 @@
         <v>14</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" si="4"/>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
       <c r="D154" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2759,14 +2755,14 @@
         <v>8</v>
       </c>
       <c r="B155" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C155" s="1">
-        <f>B155+D155</f>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
       <c r="D155" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2777,83 +2773,83 @@
         <v>15</v>
       </c>
       <c r="C156" s="1">
-        <f>B156+D156</f>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="D156" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B157" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C157" s="1">
         <f>B157+D157</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B158" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C158" s="1">
-        <f t="shared" ref="C158:C185" si="5">B158+D158</f>
-        <v>10</v>
+        <f>B158+D158</f>
+        <v>18</v>
       </c>
       <c r="D158" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B159" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C159" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>B159+D159</f>
+        <v>17</v>
       </c>
       <c r="D159" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B160" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C160" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>B160+D160</f>
+        <v>18</v>
       </c>
       <c r="D160" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B161" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C161" s="1">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>B161+D161</f>
+        <v>18</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -2864,14 +2860,14 @@
         <v>9</v>
       </c>
       <c r="B162" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C162" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f>B162+D162</f>
+        <v>9</v>
       </c>
       <c r="D162" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -2879,14 +2875,14 @@
         <v>9</v>
       </c>
       <c r="B163" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C163" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" ref="C163:C177" si="9">B163+D163</f>
+        <v>10</v>
       </c>
       <c r="D163" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -2894,14 +2890,14 @@
         <v>9</v>
       </c>
       <c r="B164" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C164" s="1">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="D164" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,14 +2905,14 @@
         <v>9</v>
       </c>
       <c r="B165" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C165" s="1">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="D165" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,14 +2920,14 @@
         <v>9</v>
       </c>
       <c r="B166" s="1">
+        <v>9</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="C166" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
       <c r="D166" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,14 +2935,14 @@
         <v>9</v>
       </c>
       <c r="B167" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C167" s="1">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="D167" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -2954,14 +2950,14 @@
         <v>9</v>
       </c>
       <c r="B168" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C168" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="D168" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -2969,14 +2965,14 @@
         <v>9</v>
       </c>
       <c r="B169" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C169" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="D169" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -2984,14 +2980,14 @@
         <v>9</v>
       </c>
       <c r="B170" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C170" s="1">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="D170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -2999,14 +2995,14 @@
         <v>9</v>
       </c>
       <c r="B171" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C171" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="D171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,14 +3010,14 @@
         <v>9</v>
       </c>
       <c r="B172" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C172" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="D172" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3029,14 +3025,14 @@
         <v>9</v>
       </c>
       <c r="B173" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C173" s="1">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="D173" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3044,14 +3040,14 @@
         <v>9</v>
       </c>
       <c r="B174" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C174" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="D174" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3059,14 +3055,14 @@
         <v>9</v>
       </c>
       <c r="B175" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C175" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="D175" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3074,14 +3070,14 @@
         <v>9</v>
       </c>
       <c r="B176" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C176" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="D176" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3089,14 +3085,14 @@
         <v>9</v>
       </c>
       <c r="B177" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C177" s="1">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="D177" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,14 +3100,13 @@
         <v>9</v>
       </c>
       <c r="B178" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C178" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D178" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3119,14 +3114,14 @@
         <v>9</v>
       </c>
       <c r="B179" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C179" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" ref="C179:C195" si="10">B179+D179</f>
+        <v>14</v>
       </c>
       <c r="D179" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3134,14 +3129,14 @@
         <v>9</v>
       </c>
       <c r="B180" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C180" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="D180" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,14 +3144,14 @@
         <v>9</v>
       </c>
       <c r="B181" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C181" s="1">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="D181" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3164,14 +3159,14 @@
         <v>9</v>
       </c>
       <c r="B182" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182" s="1">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>14</v>
       </c>
       <c r="D182" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3179,14 +3174,14 @@
         <v>9</v>
       </c>
       <c r="B183" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C183" s="1">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="D183" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,14 +3189,14 @@
         <v>9</v>
       </c>
       <c r="B184" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C184" s="1">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="D184" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,14 +3204,14 @@
         <v>9</v>
       </c>
       <c r="B185" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C185" s="1">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>17</v>
       </c>
       <c r="D185" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,14 +3219,14 @@
         <v>9</v>
       </c>
       <c r="B186" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C186" s="1">
-        <f>B186+D186</f>
-        <v>17</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="D186" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3239,14 +3234,134 @@
         <v>9</v>
       </c>
       <c r="B187" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C187" s="1">
-        <f>B187+D187</f>
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="1">
+        <v>14</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="D188" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B189" s="1">
+        <v>14</v>
+      </c>
+      <c r="C189" s="1">
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="D187" s="1">
-        <v>3</v>
+      <c r="D189" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="1">
+        <v>15</v>
+      </c>
+      <c r="C190" s="1">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="D190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="1">
+        <v>15</v>
+      </c>
+      <c r="C191" s="1">
+        <f>B191+D191</f>
+        <v>17</v>
+      </c>
+      <c r="D191" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="1">
+        <v>15</v>
+      </c>
+      <c r="C192" s="1">
+        <f>B192+D192</f>
+        <v>18</v>
+      </c>
+      <c r="D192" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="1">
+        <v>16</v>
+      </c>
+      <c r="C193" s="1">
+        <f>B193+D193</f>
+        <v>17</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" s="1">
+        <v>16</v>
+      </c>
+      <c r="C194" s="1">
+        <f>B194+D194</f>
+        <v>18</v>
+      </c>
+      <c r="D194" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="1">
+        <v>17</v>
+      </c>
+      <c r="C195" s="1">
+        <f>B195+D195</f>
+        <v>18</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
